--- a/src/산출물/쇼핑몰DB.xlsx
+++ b/src/산출물/쇼핑몰DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\yong\LN\spring_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D885EF-910C-4DBA-A7AA-7BA93E406DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0128D0BE-9892-4C55-B041-7A35309BFFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0705799C-96EF-4C5E-8799-11029CC69B47}"/>
   </bookViews>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pocker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사이즈값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,6 +253,10 @@
   </si>
   <si>
     <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,6 +635,81 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,15 +719,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,72 +726,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4F900A-6CE8-445F-85C8-5CFD73415DF4}">
   <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:P2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1057,25 +1057,25 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="28"/>
-      <c r="F2" s="24" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="F2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="J2" s="52" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="J2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
@@ -1099,7 +1099,7 @@
         <v>29</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>8</v>
@@ -1140,7 +1140,7 @@
         <v>34</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -1565,27 +1565,27 @@
     </row>
     <row r="23" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
       <c r="F24" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="36"/>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1594,12 +1594,12 @@
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="42"/>
+        <v>43</v>
+      </c>
+      <c r="J25" s="28"/>
       <c r="K25" s="18"/>
       <c r="L25" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
@@ -1612,23 +1612,23 @@
       <c r="D26" s="3">
         <v>5</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="25" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="25" t="s">
         <v>30</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
@@ -1740,47 +1740,47 @@
     </row>
     <row r="31" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="45"/>
-      <c r="F32" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
+      <c r="B32" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="F32" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="42"/>
+        <v>46</v>
+      </c>
+      <c r="F33" s="28"/>
       <c r="G33" s="18"/>
       <c r="H33" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="F34" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="51" t="s">
+      <c r="H34" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
@@ -1800,7 +1800,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -1820,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1860,7 +1860,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/산출물/쇼핑몰DB.xlsx
+++ b/src/산출물/쇼핑몰DB.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\yong\LN\spring_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0128D0BE-9892-4C55-B041-7A35309BFFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCDEF6C-7BAF-427D-BD87-970FC8733A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0705799C-96EF-4C5E-8799-11029CC69B47}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Product" sheetId="1" r:id="rId1"/>
+    <sheet name="Member" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +258,42 @@
   </si>
   <si>
     <t>picker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +763,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4F900A-6CE8-445F-85C8-5CFD73415DF4}">
   <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -1878,4 +1924,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FBDA72-7BB2-45A6-9901-4272D22BEEDA}">
+  <dimension ref="B1:J10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/산출물/쇼핑몰DB.xlsx
+++ b/src/산출물/쇼핑몰DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\yong\LN\spring_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCDEF6C-7BAF-427D-BD87-970FC8733A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE6FC8D-DFF3-49C1-AE78-4B3FE4AFF2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0705799C-96EF-4C5E-8799-11029CC69B47}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,10 @@
   </si>
   <si>
     <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +697,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,24 +724,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,15 +733,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,22 +742,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4F900A-6CE8-445F-85C8-5CFD73415DF4}">
-  <dimension ref="B1:P38"/>
+  <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="F30" sqref="F30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,25 +1116,25 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="F2" s="49" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
-      <c r="J2" s="31" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="J2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
@@ -1609,238 +1622,289 @@
       <c r="O20" s="8"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="23" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="F22" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="J22" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="F24" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="J24" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="20" t="s">
-        <v>44</v>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="3">
         <v>1</v>
       </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>4</v>
+      </c>
+      <c r="K28" s="8">
+        <v>4</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="F30" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="28"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
         <v>5</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4</v>
-      </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="F33" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="1">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>5</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>4</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4</v>
-      </c>
-      <c r="J28" s="2">
-        <v>2</v>
-      </c>
-      <c r="K28" s="1">
-        <v>4</v>
-      </c>
-      <c r="L28" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="4">
-        <v>4</v>
-      </c>
-      <c r="C29" s="8">
-        <v>4</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2">
-        <v>3</v>
-      </c>
-      <c r="K29" s="1">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F30" s="4">
-        <v>4</v>
-      </c>
-      <c r="G30" s="8">
-        <v>4</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2</v>
-      </c>
-      <c r="J30" s="4">
-        <v>4</v>
-      </c>
-      <c r="K30" s="8">
-        <v>4</v>
-      </c>
-      <c r="L30" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="F32" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="20" t="s">
-        <v>44</v>
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>30</v>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1">
         <v>4</v>
@@ -1849,76 +1913,36 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-      <c r="G36" s="1">
-        <v>4</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>3</v>
-      </c>
-      <c r="G37" s="1">
-        <v>4</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="4">
-        <v>4</v>
-      </c>
-      <c r="C38" s="8">
-        <v>4</v>
-      </c>
-      <c r="D38" s="5">
-        <v>3</v>
-      </c>
-      <c r="F38" s="4">
-        <v>4</v>
-      </c>
-      <c r="G38" s="8">
-        <v>4</v>
-      </c>
-      <c r="H38" s="5" t="s">
+    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="4">
+        <v>4</v>
+      </c>
+      <c r="C36" s="8">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4">
+        <v>4</v>
+      </c>
+      <c r="G36" s="8">
+        <v>4</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="J2:P2"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F32:H32"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1941,28 +1965,28 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">

--- a/src/산출물/쇼핑몰DB.xlsx
+++ b/src/산출물/쇼핑몰DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\yong\LN\spring_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE6FC8D-DFF3-49C1-AE78-4B3FE4AFF2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B10E373-467B-4D88-88DE-B5F2162F085A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0705799C-96EF-4C5E-8799-11029CC69B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0705799C-96EF-4C5E-8799-11029CC69B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +377,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -603,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,15 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,6 +783,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4F900A-6CE8-445F-85C8-5CFD73415DF4}">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:H30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1116,16 +1128,16 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="F2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
       <c r="J2" s="34" t="s">
         <v>25</v>
       </c>
@@ -1624,22 +1636,22 @@
     </row>
     <row r="21" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="F22" s="49" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="F22" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="J22" s="52" t="s">
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="J22" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
@@ -1690,7 +1702,7 @@
       <c r="K24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="62" t="s">
         <v>56</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -1810,16 +1822,16 @@
     </row>
     <row r="29" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="F30" s="58" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="F30" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="57"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
@@ -1954,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FBDA72-7BB2-45A6-9901-4272D22BEEDA}">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" activeCellId="1" sqref="B4 B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1965,17 +1977,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
@@ -1989,7 +2001,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="58" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="1" t="s">

--- a/src/산출물/쇼핑몰DB.xlsx
+++ b/src/산출물/쇼핑몰DB.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\yong\LN\spring_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B10E373-467B-4D88-88DE-B5F2162F085A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0415FB-1F4D-48DF-8B7B-329D4EC6ED53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0705799C-96EF-4C5E-8799-11029CC69B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0705799C-96EF-4C5E-8799-11029CC69B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
     <sheet name="Member" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckOut" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +299,114 @@
   </si>
   <si>
     <t>회원id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송받을 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제액(가액)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_summary_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매시점 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_addr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +492,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7D7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6A0FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEB4F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -609,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +851,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,54 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,8 +938,83 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,6 +1022,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFEB4F0"/>
+      <color rgb="FFC6A0FE"/>
+      <color rgb="FFFF7D7D"/>
+      <color rgb="FFF55DBF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1128,25 +1353,25 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="J2" s="34" t="s">
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="J2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
@@ -1636,22 +1861,22 @@
     </row>
     <row r="21" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="F22" s="46" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="F22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="J22" s="49" t="s">
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="J22" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
@@ -1702,7 +1927,7 @@
       <c r="K24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="35" t="s">
         <v>56</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -1822,16 +2047,16 @@
     </row>
     <row r="29" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="F30" s="55" t="s">
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="F30" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
@@ -1947,14 +2172,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="F30:H30"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1966,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FBDA72-7BB2-45A6-9901-4272D22BEEDA}">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="B4 B2:J2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1977,17 +2202,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="31"/>
@@ -2001,7 +2226,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2103,4 +2328,397 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC284F0-B974-4DA8-B96B-A6E0F8C2E51C}">
+  <dimension ref="B1:N40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="9" max="9" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="82"/>
+      <c r="M2" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="88"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="74"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="74"/>
+      <c r="J4" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="75"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="80"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="80"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="63"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="80"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="80"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="80"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="80"/>
+    </row>
+    <row r="20" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="80"/>
+    </row>
+    <row r="21" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="75"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="73"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="80"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="80"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="80"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="80"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="80"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="80"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>